--- a/doc/DB 테이블기반 소스 자동생성.xlsx
+++ b/doc/DB 테이블기반 소스 자동생성.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\brunner-next\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC826E8D-9EF2-4A55-BE8B-26516E55FC52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD29AE0B-9AB9-47CF-9520-314F8E1D9704}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="테이블 정의" sheetId="1" r:id="rId1"/>
-    <sheet name="서버 API 파일" sheetId="2" r:id="rId2"/>
-    <sheet name="커맨드 상수 추가" sheetId="3" r:id="rId3"/>
+    <sheet name="개요" sheetId="4" r:id="rId1"/>
+    <sheet name="테이블 정의" sheetId="1" r:id="rId2"/>
+    <sheet name="서버 API 파일" sheetId="2" r:id="rId3"/>
+    <sheet name="커맨드 상수 추가" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="96">
   <si>
     <t>테이블 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +365,42 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에 마스터성 데이터 저장 테이블들은 기본 데이터의 생성/수정/삭제 및 조회 (C/R/U/D)를 위한 화면이 기본 제공되는 것이 좋다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러므로 DB에 마스터성 데이터 저장 테이블을 만들때마다 해당 화면의 개발을 정형화하고 빠르게 진행할 수 있도록 개발 프로세스를 템플릿화 하고자 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회는, 리액트의 테이블 컴포넌트를 템플릿으로 미리 만들어 조회 또는 새로고침 동작시 자동 조회되도록 하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정은, 테이블의 셀 편집기능 제공으로 테이블에서 직접수정 후 저장하도록 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제는, 테이블의 행삭제 기능 제공으로 테이블에서 직접 삭제 되도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성은, 테이블 컴포넌트와는 별개로 테이블 상단 또는 하단에 별도의 입력 패널을 만들고 데이터 입력 후 저장 시 테이블 데이터 새로고침하여 추가하도록 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,10 +763,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D716E169-F30E-4AA5-BA5A-C5F6D593ABD6}">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="145.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" activeCellId="1" sqref="H5 F10"/>
     </sheetView>
   </sheetViews>
@@ -1285,7 +1381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3B75B3-300B-437A-9281-002A4B920AA7}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1353,7 +1449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F95B5A-9A05-4556-A556-ED1AE1950F67}">
   <dimension ref="A1:B4"/>
   <sheetViews>
